--- a/Data/EC/NIT-9008642071.xlsx
+++ b/Data/EC/NIT-9008642071.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FFF1288-CF71-493B-BB2D-CE901C56E4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{916D0468-6FFC-46A3-9FCA-9B3AAE6FD6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44B082E6-26BA-4BD8-9E3E-92134E9C5931}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1CEB6E7-0EC1-4F5A-86C5-23C4A3DE20C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="127">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,331 +65,325 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45757574</t>
+  </si>
+  <si>
+    <t>YAQUELIN DEL CARMEN ENRIQUEZ GUETO</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
     <t>1047449339</t>
   </si>
   <si>
     <t>JHANNY FERNANDO ARTEAGA VELEZ</t>
   </si>
   <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>32907735</t>
+  </si>
+  <si>
+    <t>DIANA MARCELA TOVAR ZAPATA</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>9284576</t>
+  </si>
+  <si>
+    <t>JOSE DEL CARMEN PUELLO CABARCAS</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1143329027</t>
+  </si>
+  <si>
+    <t>ALEJANDRO ENRIQUE MERCADO MEDINA</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1002204090</t>
+  </si>
+  <si>
+    <t>SULEIVIS MORELOS DE LA HOZ</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
     <t>2304</t>
   </si>
   <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1064989689</t>
-  </si>
-  <si>
-    <t>FERNANDO LUIS DIAZ ESPITIA</t>
-  </si>
-  <si>
-    <t>32907735</t>
-  </si>
-  <si>
-    <t>DIANA MARCELA TOVAR ZAPATA</t>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
   </si>
   <si>
     <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>9284576</t>
-  </si>
-  <si>
-    <t>JOSE DEL CARMEN PUELLO CABARCAS</t>
-  </si>
-  <si>
-    <t>45757574</t>
-  </si>
-  <si>
-    <t>YAQUELIN DEL CARMEN ENRIQUEZ GUETO</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1002204090</t>
-  </si>
-  <si>
-    <t>SULEIVIS MORELOS DE LA HOZ</t>
-  </si>
-  <si>
-    <t>1143329027</t>
-  </si>
-  <si>
-    <t>ALEJANDRO ENRIQUE MERCADO MEDINA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -488,7 +482,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -501,9 +497,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -703,23 +697,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -747,10 +741,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,7 +797,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAFD88B-7FA8-7EB7-BAB1-C878E92DCDE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41586565-5FE7-F34D-8BBA-8C4E8C70FD1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1154,8 +1148,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1B4B0B-2E8E-4937-A819-DA0501C10986}">
-  <dimension ref="B2:J446"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF7D07-EE73-415F-A118-40769885AB2A}">
+  <dimension ref="B2:J440"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1179,7 +1173,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1224,7 +1218,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1256,12 +1250,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>16044519</v>
+        <v>15833847</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1272,14 +1266,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="5">
         <v>95</v>
@@ -1309,13 +1303,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1332,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>18134</v>
+        <v>32000</v>
       </c>
       <c r="G16" s="18">
         <v>800000</v>
@@ -1438,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>32000</v>
@@ -1461,19 +1455,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G22" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1507,13 +1501,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>32000</v>
@@ -1530,19 +1524,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G25" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1576,10 +1570,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>22</v>
@@ -1599,19 +1593,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G28" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1622,19 +1616,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1651,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
         <v>32000</v>
@@ -1668,13 +1662,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
         <v>32000</v>
@@ -1691,19 +1685,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G32" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1714,19 +1708,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1743,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
         <v>32000</v>
@@ -1760,13 +1754,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>32000</v>
@@ -1783,19 +1777,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G36" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1806,19 +1800,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1835,7 +1829,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
         <v>32000</v>
@@ -1852,13 +1846,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
         <v>32000</v>
@@ -1875,19 +1869,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G40" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1898,19 +1892,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1927,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
         <v>32000</v>
@@ -1944,13 +1938,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
         <v>32000</v>
@@ -1967,19 +1961,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G44" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1990,19 +1984,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2019,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>32000</v>
@@ -2036,13 +2030,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
         <v>32000</v>
@@ -2059,19 +2053,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G48" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2082,19 +2076,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G49" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2111,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F50" s="18">
         <v>32000</v>
@@ -2128,13 +2122,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
         <v>32000</v>
@@ -2151,19 +2145,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F52" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G52" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2174,19 +2168,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F53" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G53" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2203,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F54" s="18">
         <v>32000</v>
@@ -2220,13 +2214,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F55" s="18">
         <v>32000</v>
@@ -2243,19 +2237,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F56" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G56" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2266,19 +2260,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F57" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2295,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F58" s="18">
         <v>32000</v>
@@ -2312,13 +2306,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F59" s="18">
         <v>32000</v>
@@ -2335,19 +2329,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F60" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G60" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2358,19 +2352,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F61" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G61" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2387,7 +2381,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F62" s="18">
         <v>32000</v>
@@ -2404,13 +2398,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F63" s="18">
         <v>32000</v>
@@ -2427,19 +2421,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F64" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G64" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2450,19 +2444,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F65" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G65" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2479,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F66" s="18">
         <v>32000</v>
@@ -2496,13 +2490,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F67" s="18">
         <v>32000</v>
@@ -2519,19 +2513,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F68" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G68" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2542,19 +2536,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F69" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G69" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2571,7 +2565,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F70" s="18">
         <v>32000</v>
@@ -2588,13 +2582,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F71" s="18">
         <v>32000</v>
@@ -2611,19 +2605,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="F72" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G72" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2634,19 +2628,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F73" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G73" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2663,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F74" s="18">
         <v>32000</v>
@@ -2680,13 +2674,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F75" s="18">
         <v>32000</v>
@@ -2703,19 +2697,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F76" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G76" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2726,19 +2720,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F77" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G77" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2755,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F78" s="18">
         <v>32000</v>
@@ -2772,13 +2766,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F79" s="18">
         <v>32000</v>
@@ -2795,19 +2789,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F80" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G80" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2818,19 +2812,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F81" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G81" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2847,7 +2841,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="F82" s="18">
         <v>32000</v>
@@ -2864,13 +2858,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F83" s="18">
         <v>32000</v>
@@ -2887,19 +2881,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="F84" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G84" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2910,19 +2904,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F85" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G85" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2939,7 +2933,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="F86" s="18">
         <v>32000</v>
@@ -2956,13 +2950,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F87" s="18">
         <v>32000</v>
@@ -2979,19 +2973,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="F88" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G88" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3002,19 +2996,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F89" s="18">
-        <v>35112</v>
+        <v>48000</v>
       </c>
       <c r="G89" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3025,19 +3019,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F90" s="18">
-        <v>35112</v>
+        <v>32000</v>
       </c>
       <c r="G90" s="18">
-        <v>908526</v>
+        <v>800000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3048,19 +3042,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F91" s="18">
-        <v>35112</v>
+        <v>13541</v>
       </c>
       <c r="G91" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3071,19 +3065,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F92" s="18">
-        <v>35112</v>
+        <v>32000</v>
       </c>
       <c r="G92" s="18">
-        <v>908526</v>
+        <v>800000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3094,19 +3088,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F93" s="18">
-        <v>35112</v>
+        <v>48000</v>
       </c>
       <c r="G93" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3117,19 +3111,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F94" s="18">
-        <v>35112</v>
+        <v>48000</v>
       </c>
       <c r="G94" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3140,19 +3134,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="F95" s="18">
-        <v>30400</v>
+        <v>32000</v>
       </c>
       <c r="G95" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3163,19 +3157,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F96" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3186,19 +3180,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F97" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G97" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3209,13 +3203,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F98" s="18">
         <v>48000</v>
@@ -3232,13 +3226,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F99" s="18">
         <v>48000</v>
@@ -3255,19 +3249,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="F100" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G100" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3278,19 +3272,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F101" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3301,19 +3295,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F102" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G102" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3324,13 +3318,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F103" s="18">
         <v>48000</v>
@@ -3347,13 +3341,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F104" s="18">
         <v>48000</v>
@@ -3370,19 +3364,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="F105" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G105" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3393,19 +3387,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F106" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3416,19 +3410,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F107" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G107" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3439,13 +3433,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="F108" s="18">
         <v>48000</v>
@@ -3462,13 +3456,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="F109" s="18">
         <v>48000</v>
@@ -3485,19 +3479,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="F110" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G110" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3508,19 +3502,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F111" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3531,19 +3525,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F112" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G112" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3554,13 +3548,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F113" s="18">
         <v>48000</v>
@@ -3577,13 +3571,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F114" s="18">
         <v>48000</v>
@@ -3600,19 +3594,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F115" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G115" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3623,19 +3617,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F116" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3646,19 +3640,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F117" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G117" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3669,13 +3663,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F118" s="18">
         <v>48000</v>
@@ -3692,13 +3686,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F119" s="18">
         <v>48000</v>
@@ -3715,19 +3709,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F120" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G120" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3738,19 +3732,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F121" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3761,19 +3755,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F122" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G122" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3784,13 +3778,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F123" s="18">
         <v>48000</v>
@@ -3807,13 +3801,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F124" s="18">
         <v>48000</v>
@@ -3830,19 +3824,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F125" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G125" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3853,19 +3847,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F126" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3876,19 +3870,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F127" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G127" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3899,13 +3893,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F128" s="18">
         <v>48000</v>
@@ -3922,13 +3916,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F129" s="18">
         <v>48000</v>
@@ -3945,19 +3939,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F130" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G130" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3968,19 +3962,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F131" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3991,19 +3985,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F132" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G132" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4014,13 +4008,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F133" s="18">
         <v>48000</v>
@@ -4037,13 +4031,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F134" s="18">
         <v>48000</v>
@@ -4060,19 +4054,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F135" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G135" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4083,19 +4077,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F136" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4106,19 +4100,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F137" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G137" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4129,13 +4123,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F138" s="18">
         <v>48000</v>
@@ -4152,13 +4146,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F139" s="18">
         <v>48000</v>
@@ -4175,19 +4169,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F140" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G140" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4198,19 +4192,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F141" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4221,19 +4215,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F142" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G142" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4244,13 +4238,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F143" s="18">
         <v>48000</v>
@@ -4267,13 +4261,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F144" s="18">
         <v>48000</v>
@@ -4290,19 +4284,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F145" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G145" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4313,19 +4307,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F146" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G146" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4336,19 +4330,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F147" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G147" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4359,13 +4353,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F148" s="18">
         <v>48000</v>
@@ -4382,13 +4376,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F149" s="18">
         <v>48000</v>
@@ -4405,19 +4399,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F150" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G150" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4428,19 +4422,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F151" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4451,19 +4445,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F152" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G152" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4474,13 +4468,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F153" s="18">
         <v>48000</v>
@@ -4497,13 +4491,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F154" s="18">
         <v>48000</v>
@@ -4520,19 +4514,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F155" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G155" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4543,19 +4537,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F156" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G156" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4566,19 +4560,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F157" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G157" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4589,10 +4583,10 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>57</v>
@@ -4612,13 +4606,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F159" s="18">
         <v>48000</v>
@@ -4635,19 +4629,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F160" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G160" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4658,19 +4652,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F161" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4681,19 +4675,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F162" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G162" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4704,13 +4698,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F163" s="18">
         <v>48000</v>
@@ -4727,13 +4721,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F164" s="18">
         <v>48000</v>
@@ -4750,19 +4744,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F165" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G165" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4773,19 +4767,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F166" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4796,19 +4790,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F167" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G167" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4819,13 +4813,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F168" s="18">
         <v>48000</v>
@@ -4842,13 +4836,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F169" s="18">
         <v>48000</v>
@@ -4865,19 +4859,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F170" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G170" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4888,19 +4882,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F171" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4911,19 +4905,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F172" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G172" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4934,13 +4928,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F173" s="18">
         <v>48000</v>
@@ -4957,13 +4951,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F174" s="18">
         <v>48000</v>
@@ -4980,19 +4974,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F175" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G175" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5003,19 +4997,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F176" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G176" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5026,19 +5020,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F177" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G177" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5049,13 +5043,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F178" s="18">
         <v>48000</v>
@@ -5072,13 +5066,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F179" s="18">
         <v>48000</v>
@@ -5095,19 +5089,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F180" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G180" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5118,19 +5112,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F181" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G181" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5141,19 +5135,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F182" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G182" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5164,13 +5158,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F183" s="18">
         <v>48000</v>
@@ -5187,13 +5181,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F184" s="18">
         <v>48000</v>
@@ -5210,19 +5204,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F185" s="18">
-        <v>30400</v>
+        <v>32000</v>
       </c>
       <c r="G185" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5233,19 +5227,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="F186" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G186" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5256,19 +5250,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F187" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G187" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5279,13 +5273,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F188" s="18">
         <v>48000</v>
@@ -5302,13 +5296,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F189" s="18">
         <v>48000</v>
@@ -5325,19 +5319,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F190" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G190" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5348,19 +5342,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F191" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G191" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5371,19 +5365,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="F192" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G192" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5394,13 +5388,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F193" s="18">
         <v>48000</v>
@@ -5417,13 +5411,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F194" s="18">
         <v>48000</v>
@@ -5440,19 +5434,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F195" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G195" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5463,19 +5457,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F196" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G196" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5486,19 +5480,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F197" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G197" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5509,13 +5503,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F198" s="18">
         <v>48000</v>
@@ -5532,13 +5526,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="F199" s="18">
         <v>48000</v>
@@ -5555,19 +5549,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="F200" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G200" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5578,19 +5572,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F201" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5601,19 +5595,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F202" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G202" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5624,13 +5618,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F203" s="18">
         <v>48000</v>
@@ -5647,13 +5641,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F204" s="18">
         <v>48000</v>
@@ -5670,19 +5664,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F205" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G205" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5693,19 +5687,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F206" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G206" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5716,19 +5710,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F207" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G207" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5739,13 +5733,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F208" s="18">
         <v>48000</v>
@@ -5762,13 +5756,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F209" s="18">
         <v>48000</v>
@@ -5785,19 +5779,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F210" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G210" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5808,19 +5802,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F211" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5831,19 +5825,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F212" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G212" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5854,13 +5848,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F213" s="18">
         <v>48000</v>
@@ -5877,13 +5871,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F214" s="18">
         <v>48000</v>
@@ -5900,19 +5894,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="F215" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G215" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5923,19 +5917,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F216" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5946,19 +5940,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F217" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G217" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5969,13 +5963,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F218" s="18">
         <v>48000</v>
@@ -5992,13 +5986,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F219" s="18">
         <v>48000</v>
@@ -6015,19 +6009,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F220" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G220" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6038,19 +6032,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F221" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6061,19 +6055,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F222" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G222" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6084,13 +6078,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F223" s="18">
         <v>48000</v>
@@ -6107,13 +6101,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F224" s="18">
         <v>48000</v>
@@ -6130,19 +6124,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F225" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G225" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6153,19 +6147,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F226" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G226" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6176,19 +6170,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F227" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G227" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6199,13 +6193,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F228" s="18">
         <v>48000</v>
@@ -6222,13 +6216,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F229" s="18">
         <v>48000</v>
@@ -6245,19 +6239,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F230" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G230" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6268,19 +6262,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F231" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6291,19 +6285,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F232" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G232" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6314,13 +6308,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F233" s="18">
         <v>48000</v>
@@ -6337,13 +6331,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F234" s="18">
         <v>48000</v>
@@ -6360,19 +6354,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F235" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G235" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6383,19 +6377,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F236" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G236" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6406,19 +6400,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F237" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G237" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6429,13 +6423,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F238" s="18">
         <v>48000</v>
@@ -6452,13 +6446,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F239" s="18">
         <v>48000</v>
@@ -6475,19 +6469,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F240" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G240" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6498,19 +6492,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F241" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G241" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6521,19 +6515,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F242" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G242" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6544,13 +6538,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F243" s="18">
         <v>48000</v>
@@ -6567,13 +6561,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F244" s="18">
         <v>48000</v>
@@ -6590,19 +6584,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F245" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G245" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6613,19 +6607,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F246" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G246" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6636,19 +6630,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F247" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G247" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6659,13 +6653,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F248" s="18">
         <v>48000</v>
@@ -6682,13 +6676,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F249" s="18">
         <v>48000</v>
@@ -6705,19 +6699,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F250" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G250" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6728,19 +6722,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F251" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G251" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6751,19 +6745,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F252" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G252" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6774,13 +6768,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F253" s="18">
         <v>48000</v>
@@ -6797,13 +6791,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F254" s="18">
         <v>48000</v>
@@ -6820,19 +6814,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F255" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G255" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6843,19 +6837,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F256" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G256" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6866,19 +6860,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F257" s="18">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G257" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6889,16 +6883,16 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F258" s="18">
-        <v>29509</v>
+        <v>48000</v>
       </c>
       <c r="G258" s="18">
         <v>1200000</v>
@@ -6912,16 +6906,16 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F259" s="18">
-        <v>29509</v>
+        <v>48000</v>
       </c>
       <c r="G259" s="18">
         <v>1200000</v>
@@ -6935,19 +6929,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F260" s="18">
-        <v>29509</v>
+        <v>32000</v>
       </c>
       <c r="G260" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6958,19 +6952,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F261" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G261" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -6981,19 +6975,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F262" s="18">
-        <v>29509</v>
+        <v>32000</v>
       </c>
       <c r="G262" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7004,16 +6998,16 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F263" s="18">
-        <v>29509</v>
+        <v>48000</v>
       </c>
       <c r="G263" s="18">
         <v>1200000</v>
@@ -7027,16 +7021,16 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F264" s="18">
-        <v>29509</v>
+        <v>48000</v>
       </c>
       <c r="G264" s="18">
         <v>1200000</v>
@@ -7050,19 +7044,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F265" s="18">
-        <v>29509</v>
+        <v>32000</v>
       </c>
       <c r="G265" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7073,19 +7067,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F266" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G266" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7096,19 +7090,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F267" s="18">
-        <v>29509</v>
+        <v>32000</v>
       </c>
       <c r="G267" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7119,16 +7113,16 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F268" s="18">
-        <v>29509</v>
+        <v>48000</v>
       </c>
       <c r="G268" s="18">
         <v>1200000</v>
@@ -7142,16 +7136,16 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F269" s="18">
-        <v>29509</v>
+        <v>48000</v>
       </c>
       <c r="G269" s="18">
         <v>1200000</v>
@@ -7165,19 +7159,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E270" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F270" s="18">
-        <v>29509</v>
+        <v>32000</v>
       </c>
       <c r="G270" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7188,19 +7182,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F271" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G271" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7211,19 +7205,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F272" s="18">
-        <v>29509</v>
+        <v>32000</v>
       </c>
       <c r="G272" s="18">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7234,19 +7228,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F273" s="18">
-        <v>20267</v>
+        <v>48000</v>
       </c>
       <c r="G273" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7257,19 +7251,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F274" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G274" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7280,13 +7274,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F275" s="18">
         <v>32000</v>
@@ -7303,19 +7297,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F276" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G276" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7326,13 +7320,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F277" s="18">
         <v>32000</v>
@@ -7349,19 +7343,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F278" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G278" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7372,19 +7366,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F279" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G279" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7395,13 +7389,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F280" s="18">
         <v>32000</v>
@@ -7418,19 +7412,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F281" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G281" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7441,13 +7435,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F282" s="18">
         <v>32000</v>
@@ -7464,19 +7458,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F283" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G283" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7487,19 +7481,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F284" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G284" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7510,13 +7504,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F285" s="18">
         <v>32000</v>
@@ -7533,19 +7527,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F286" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G286" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7556,13 +7550,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F287" s="18">
         <v>32000</v>
@@ -7579,19 +7573,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F288" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G288" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7602,19 +7596,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F289" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G289" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7625,13 +7619,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F290" s="18">
         <v>32000</v>
@@ -7648,19 +7642,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F291" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G291" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7671,13 +7665,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F292" s="18">
         <v>32000</v>
@@ -7694,19 +7688,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="F293" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G293" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7717,19 +7711,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="F294" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G294" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7740,13 +7734,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="F295" s="18">
         <v>32000</v>
@@ -7763,19 +7757,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F296" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G296" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7786,13 +7780,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F297" s="18">
         <v>32000</v>
@@ -7809,19 +7803,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F298" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G298" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7832,19 +7826,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="F299" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G299" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7855,13 +7849,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F300" s="18">
         <v>32000</v>
@@ -7878,19 +7872,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="F301" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G301" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7901,13 +7895,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F302" s="18">
         <v>32000</v>
@@ -7924,19 +7918,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="F303" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G303" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7947,19 +7941,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F304" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G304" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -7970,13 +7964,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F305" s="18">
         <v>32000</v>
@@ -7993,19 +7987,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="F306" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G306" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8016,13 +8010,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="F307" s="18">
         <v>32000</v>
@@ -8039,19 +8033,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="F308" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G308" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8062,19 +8056,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="F309" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G309" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8085,13 +8079,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F310" s="18">
         <v>32000</v>
@@ -8108,19 +8102,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="F311" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G311" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8131,13 +8125,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="F312" s="18">
         <v>32000</v>
@@ -8154,19 +8148,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F313" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G313" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8177,19 +8171,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F314" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G314" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8200,13 +8194,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F315" s="18">
         <v>32000</v>
@@ -8223,19 +8217,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="F316" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G316" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8246,13 +8240,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="F317" s="18">
         <v>32000</v>
@@ -8269,19 +8263,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F318" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G318" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8292,19 +8286,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F319" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G319" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8315,13 +8309,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F320" s="18">
         <v>32000</v>
@@ -8338,19 +8332,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F321" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G321" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8361,13 +8355,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="F322" s="18">
         <v>32000</v>
@@ -8384,19 +8378,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F323" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G323" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8407,19 +8401,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F324" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G324" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8430,13 +8424,13 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F325" s="18">
         <v>32000</v>
@@ -8453,19 +8447,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F326" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G326" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8476,13 +8470,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F327" s="18">
         <v>32000</v>
@@ -8499,19 +8493,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F328" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G328" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8522,19 +8516,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F329" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G329" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8545,13 +8539,13 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F330" s="18">
         <v>32000</v>
@@ -8568,19 +8562,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F331" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G331" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8591,13 +8585,13 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F332" s="18">
         <v>32000</v>
@@ -8614,19 +8608,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F333" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G333" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8637,19 +8631,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F334" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G334" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8660,13 +8654,13 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F335" s="18">
         <v>32000</v>
@@ -8683,19 +8677,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F336" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G336" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8706,13 +8700,13 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="F337" s="18">
         <v>32000</v>
@@ -8729,19 +8723,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F338" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G338" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8752,19 +8746,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F339" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G339" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8775,13 +8769,13 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F340" s="18">
         <v>32000</v>
@@ -8798,19 +8792,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F341" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G341" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8821,13 +8815,13 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F342" s="18">
         <v>32000</v>
@@ -8844,19 +8838,19 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F343" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G343" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -8867,19 +8861,19 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="F344" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G344" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
@@ -8890,13 +8884,13 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F345" s="18">
         <v>32000</v>
@@ -8913,19 +8907,19 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="F346" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G346" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H346" s="19"/>
       <c r="I346" s="19"/>
@@ -8936,13 +8930,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F347" s="18">
         <v>32000</v>
@@ -8959,19 +8953,19 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F348" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G348" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H348" s="19"/>
       <c r="I348" s="19"/>
@@ -8982,19 +8976,19 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F349" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G349" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
@@ -9005,13 +8999,13 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F350" s="18">
         <v>32000</v>
@@ -9028,19 +9022,19 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F351" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G351" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H351" s="19"/>
       <c r="I351" s="19"/>
@@ -9051,13 +9045,13 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F352" s="18">
         <v>32000</v>
@@ -9074,19 +9068,19 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F353" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G353" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H353" s="19"/>
       <c r="I353" s="19"/>
@@ -9097,19 +9091,19 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F354" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G354" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H354" s="19"/>
       <c r="I354" s="19"/>
@@ -9120,13 +9114,13 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F355" s="18">
         <v>32000</v>
@@ -9143,19 +9137,19 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F356" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G356" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H356" s="19"/>
       <c r="I356" s="19"/>
@@ -9166,13 +9160,13 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F357" s="18">
         <v>32000</v>
@@ -9189,19 +9183,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F358" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G358" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9212,19 +9206,19 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F359" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G359" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H359" s="19"/>
       <c r="I359" s="19"/>
@@ -9235,13 +9229,13 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F360" s="18">
         <v>32000</v>
@@ -9258,19 +9252,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F361" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G361" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9281,16 +9275,16 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F362" s="18">
-        <v>32000</v>
+        <v>18134</v>
       </c>
       <c r="G362" s="18">
         <v>800000</v>
@@ -9304,19 +9298,19 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F363" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G363" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H363" s="19"/>
       <c r="I363" s="19"/>
@@ -9327,19 +9321,19 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F364" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G364" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H364" s="19"/>
       <c r="I364" s="19"/>
@@ -9350,13 +9344,13 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F365" s="18">
         <v>32000</v>
@@ -9373,19 +9367,19 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F366" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G366" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H366" s="19"/>
       <c r="I366" s="19"/>
@@ -9396,19 +9390,19 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F367" s="18">
-        <v>32000</v>
+        <v>48000</v>
       </c>
       <c r="G367" s="18">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
@@ -9419,19 +9413,19 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F368" s="18">
-        <v>19791</v>
+        <v>48000</v>
       </c>
       <c r="G368" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H368" s="19"/>
       <c r="I368" s="19"/>
@@ -9442,19 +9436,19 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F369" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G369" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H369" s="19"/>
       <c r="I369" s="19"/>
@@ -9465,13 +9459,13 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F370" s="18">
         <v>31249</v>
@@ -9488,19 +9482,19 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F371" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G371" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H371" s="19"/>
       <c r="I371" s="19"/>
@@ -9511,19 +9505,19 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F372" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G372" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H372" s="19"/>
       <c r="I372" s="19"/>
@@ -9534,19 +9528,19 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F373" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G373" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H373" s="19"/>
       <c r="I373" s="19"/>
@@ -9557,13 +9551,13 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F374" s="18">
         <v>31249</v>
@@ -9580,19 +9574,19 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F375" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G375" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H375" s="19"/>
       <c r="I375" s="19"/>
@@ -9603,19 +9597,19 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E376" s="16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F376" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G376" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H376" s="19"/>
       <c r="I376" s="19"/>
@@ -9626,19 +9620,19 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E377" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F377" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G377" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H377" s="19"/>
       <c r="I377" s="19"/>
@@ -9649,13 +9643,13 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F378" s="18">
         <v>31249</v>
@@ -9672,19 +9666,19 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E379" s="16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F379" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G379" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H379" s="19"/>
       <c r="I379" s="19"/>
@@ -9695,19 +9689,19 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F380" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G380" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H380" s="19"/>
       <c r="I380" s="19"/>
@@ -9718,19 +9712,19 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E381" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F381" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G381" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H381" s="19"/>
       <c r="I381" s="19"/>
@@ -9741,10 +9735,10 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E382" s="16" t="s">
         <v>102</v>
@@ -9764,19 +9758,19 @@
         <v>8</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E383" s="16" t="s">
         <v>103</v>
       </c>
       <c r="F383" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G383" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H383" s="19"/>
       <c r="I383" s="19"/>
@@ -9787,19 +9781,19 @@
         <v>8</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D384" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E384" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F384" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G384" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H384" s="19"/>
       <c r="I384" s="19"/>
@@ -9810,19 +9804,19 @@
         <v>8</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D385" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E385" s="16" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F385" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G385" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H385" s="19"/>
       <c r="I385" s="19"/>
@@ -9833,13 +9827,13 @@
         <v>8</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D386" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E386" s="16" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="F386" s="18">
         <v>31249</v>
@@ -9856,19 +9850,19 @@
         <v>8</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E387" s="16" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="F387" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G387" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H387" s="19"/>
       <c r="I387" s="19"/>
@@ -9879,19 +9873,19 @@
         <v>8</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D388" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E388" s="16" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="F388" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G388" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H388" s="19"/>
       <c r="I388" s="19"/>
@@ -9902,19 +9896,19 @@
         <v>8</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D389" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E389" s="16" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F389" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G389" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H389" s="19"/>
       <c r="I389" s="19"/>
@@ -9925,13 +9919,13 @@
         <v>8</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D390" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E390" s="16" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F390" s="18">
         <v>31249</v>
@@ -9948,19 +9942,19 @@
         <v>8</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D391" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E391" s="16" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F391" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G391" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H391" s="19"/>
       <c r="I391" s="19"/>
@@ -9971,19 +9965,19 @@
         <v>8</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D392" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E392" s="16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F392" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G392" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H392" s="19"/>
       <c r="I392" s="19"/>
@@ -9994,19 +9988,19 @@
         <v>8</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D393" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E393" s="16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F393" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G393" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H393" s="19"/>
       <c r="I393" s="19"/>
@@ -10017,13 +10011,13 @@
         <v>8</v>
       </c>
       <c r="C394" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D394" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E394" s="16" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F394" s="18">
         <v>31249</v>
@@ -10040,19 +10034,19 @@
         <v>8</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D395" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E395" s="16" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="F395" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G395" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H395" s="19"/>
       <c r="I395" s="19"/>
@@ -10063,19 +10057,19 @@
         <v>8</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D396" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E396" s="16" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="F396" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G396" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H396" s="19"/>
       <c r="I396" s="19"/>
@@ -10086,19 +10080,19 @@
         <v>8</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D397" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E397" s="16" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="F397" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G397" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H397" s="19"/>
       <c r="I397" s="19"/>
@@ -10109,13 +10103,13 @@
         <v>8</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D398" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E398" s="16" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="F398" s="18">
         <v>31249</v>
@@ -10132,19 +10126,19 @@
         <v>8</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D399" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E399" s="16" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="F399" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G399" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H399" s="19"/>
       <c r="I399" s="19"/>
@@ -10155,19 +10149,19 @@
         <v>8</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D400" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E400" s="16" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="F400" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G400" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H400" s="19"/>
       <c r="I400" s="19"/>
@@ -10178,19 +10172,19 @@
         <v>8</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D401" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E401" s="16" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="F401" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G401" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H401" s="19"/>
       <c r="I401" s="19"/>
@@ -10201,13 +10195,13 @@
         <v>8</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D402" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E402" s="16" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F402" s="18">
         <v>31249</v>
@@ -10224,19 +10218,19 @@
         <v>8</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D403" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E403" s="16" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F403" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G403" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H403" s="19"/>
       <c r="I403" s="19"/>
@@ -10247,19 +10241,19 @@
         <v>8</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D404" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E404" s="16" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F404" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G404" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H404" s="19"/>
       <c r="I404" s="19"/>
@@ -10270,19 +10264,19 @@
         <v>8</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D405" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E405" s="16" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F405" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G405" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H405" s="19"/>
       <c r="I405" s="19"/>
@@ -10293,13 +10287,13 @@
         <v>8</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D406" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E406" s="16" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="F406" s="18">
         <v>31249</v>
@@ -10316,19 +10310,19 @@
         <v>8</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D407" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E407" s="16" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="F407" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G407" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H407" s="19"/>
       <c r="I407" s="19"/>
@@ -10339,19 +10333,19 @@
         <v>8</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D408" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E408" s="16" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="F408" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G408" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H408" s="19"/>
       <c r="I408" s="19"/>
@@ -10362,19 +10356,19 @@
         <v>8</v>
       </c>
       <c r="C409" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D409" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E409" s="16" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="F409" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G409" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H409" s="19"/>
       <c r="I409" s="19"/>
@@ -10385,13 +10379,13 @@
         <v>8</v>
       </c>
       <c r="C410" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D410" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E410" s="16" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="F410" s="18">
         <v>31249</v>
@@ -10408,19 +10402,19 @@
         <v>8</v>
       </c>
       <c r="C411" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D411" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E411" s="16" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F411" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G411" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H411" s="19"/>
       <c r="I411" s="19"/>
@@ -10431,19 +10425,19 @@
         <v>8</v>
       </c>
       <c r="C412" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D412" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E412" s="16" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="F412" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G412" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H412" s="19"/>
       <c r="I412" s="19"/>
@@ -10454,19 +10448,19 @@
         <v>8</v>
       </c>
       <c r="C413" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D413" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E413" s="16" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="F413" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G413" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H413" s="19"/>
       <c r="I413" s="19"/>
@@ -10477,13 +10471,13 @@
         <v>8</v>
       </c>
       <c r="C414" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D414" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E414" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F414" s="18">
         <v>31249</v>
@@ -10500,19 +10494,19 @@
         <v>8</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D415" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="F415" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G415" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H415" s="19"/>
       <c r="I415" s="19"/>
@@ -10523,19 +10517,19 @@
         <v>8</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D416" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E416" s="16" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="F416" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G416" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H416" s="19"/>
       <c r="I416" s="19"/>
@@ -10546,19 +10540,19 @@
         <v>8</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D417" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E417" s="16" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="F417" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G417" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H417" s="19"/>
       <c r="I417" s="19"/>
@@ -10569,13 +10563,13 @@
         <v>8</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D418" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E418" s="16" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="F418" s="18">
         <v>31249</v>
@@ -10592,19 +10586,19 @@
         <v>8</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D419" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E419" s="16" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="F419" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G419" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H419" s="19"/>
       <c r="I419" s="19"/>
@@ -10615,19 +10609,19 @@
         <v>8</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D420" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="F420" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G420" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H420" s="19"/>
       <c r="I420" s="19"/>
@@ -10638,19 +10632,19 @@
         <v>8</v>
       </c>
       <c r="C421" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D421" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E421" s="16" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="F421" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G421" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H421" s="19"/>
       <c r="I421" s="19"/>
@@ -10661,13 +10655,13 @@
         <v>8</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D422" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F422" s="18">
         <v>31249</v>
@@ -10684,19 +10678,19 @@
         <v>8</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D423" s="17" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="F423" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G423" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H423" s="19"/>
       <c r="I423" s="19"/>
@@ -10707,19 +10701,19 @@
         <v>8</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D424" s="17" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="F424" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G424" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H424" s="19"/>
       <c r="I424" s="19"/>
@@ -10730,19 +10724,19 @@
         <v>8</v>
       </c>
       <c r="C425" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D425" s="17" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E425" s="16" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="F425" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G425" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H425" s="19"/>
       <c r="I425" s="19"/>
@@ -10753,13 +10747,13 @@
         <v>8</v>
       </c>
       <c r="C426" s="16" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D426" s="17" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E426" s="16" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="F426" s="18">
         <v>31249</v>
@@ -10776,19 +10770,19 @@
         <v>8</v>
       </c>
       <c r="C427" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D427" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E427" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D427" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E427" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F427" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G427" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H427" s="19"/>
       <c r="I427" s="19"/>
@@ -10799,19 +10793,19 @@
         <v>8</v>
       </c>
       <c r="C428" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D428" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E428" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D428" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E428" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="F428" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G428" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H428" s="19"/>
       <c r="I428" s="19"/>
@@ -10822,19 +10816,19 @@
         <v>8</v>
       </c>
       <c r="C429" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D429" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E429" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D429" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E429" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F429" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G429" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H429" s="19"/>
       <c r="I429" s="19"/>
@@ -10845,13 +10839,13 @@
         <v>8</v>
       </c>
       <c r="C430" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D430" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E430" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="D430" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E430" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="F430" s="18">
         <v>31249</v>
@@ -10868,19 +10862,19 @@
         <v>8</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D431" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E431" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E431" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="F431" s="18">
-        <v>31249</v>
+        <v>30400</v>
       </c>
       <c r="G431" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H431" s="19"/>
       <c r="I431" s="19"/>
@@ -10891,19 +10885,19 @@
         <v>8</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D432" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E432" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E432" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F432" s="18">
-        <v>31249</v>
+        <v>30400</v>
       </c>
       <c r="G432" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H432" s="19"/>
       <c r="I432" s="19"/>
@@ -10914,213 +10908,75 @@
         <v>8</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D433" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E433" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E433" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="F433" s="18">
-        <v>31249</v>
+        <v>20267</v>
       </c>
       <c r="G433" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H433" s="19"/>
       <c r="I433" s="19"/>
       <c r="J433" s="20"/>
     </row>
     <row r="434" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B434" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C434" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D434" s="17" t="s">
+      <c r="B434" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D434" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E434" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E434" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F434" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G434" s="18">
+      <c r="F434" s="24">
+        <v>19791</v>
+      </c>
+      <c r="G434" s="24">
         <v>781242</v>
       </c>
-      <c r="H434" s="19"/>
-      <c r="I434" s="19"/>
-      <c r="J434" s="20"/>
-    </row>
-    <row r="435" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B435" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C435" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D435" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E435" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F435" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G435" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H435" s="19"/>
-      <c r="I435" s="19"/>
-      <c r="J435" s="20"/>
-    </row>
-    <row r="436" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B436" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C436" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D436" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E436" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F436" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G436" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H436" s="19"/>
-      <c r="I436" s="19"/>
-      <c r="J436" s="20"/>
-    </row>
-    <row r="437" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B437" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C437" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D437" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E437" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F437" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G437" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H437" s="19"/>
-      <c r="I437" s="19"/>
-      <c r="J437" s="20"/>
-    </row>
-    <row r="438" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B438" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C438" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D438" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E438" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F438" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G438" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H438" s="19"/>
-      <c r="I438" s="19"/>
-      <c r="J438" s="20"/>
+      <c r="H434" s="25"/>
+      <c r="I434" s="25"/>
+      <c r="J434" s="26"/>
     </row>
     <row r="439" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B439" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C439" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D439" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E439" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F439" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G439" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H439" s="19"/>
-      <c r="I439" s="19"/>
-      <c r="J439" s="20"/>
+      <c r="B439" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C439" s="32"/>
+      <c r="H439" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I439" s="1"/>
+      <c r="J439" s="1"/>
     </row>
     <row r="440" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B440" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C440" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D440" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E440" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F440" s="24">
-        <v>13541</v>
-      </c>
-      <c r="G440" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H440" s="25"/>
-      <c r="I440" s="25"/>
-      <c r="J440" s="26"/>
-    </row>
-    <row r="445" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B445" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C445" s="32"/>
-      <c r="H445" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I445" s="1"/>
-      <c r="J445" s="1"/>
-    </row>
-    <row r="446" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B446" s="32" t="s">
+      <c r="B440" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C440" s="32"/>
+      <c r="H440" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C446" s="32"/>
-      <c r="H446" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I446" s="1"/>
-      <c r="J446" s="1"/>
+      <c r="I440" s="1"/>
+      <c r="J440" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B446:C446"/>
-    <mergeCell ref="B445:C445"/>
-    <mergeCell ref="H446:J446"/>
-    <mergeCell ref="H445:J445"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="H440:J440"/>
+    <mergeCell ref="H439:J439"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
